--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed5/result_data_RandomForest.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.806299999999998</v>
+        <v>5.981099999999998</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.38769999999999</v>
+        <v>-21.40019999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.7814</v>
+        <v>8.950099999999996</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.544300000000004</v>
+        <v>5.447200000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.05459999999999</v>
+        <v>-21.04559999999998</v>
       </c>
       <c r="B32" t="n">
-        <v>5.981499999999996</v>
+        <v>5.965399999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.80760000000001</v>
+        <v>9.811100000000007</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.99909999999999</v>
+        <v>-20.1445</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.78039999999998</v>
+        <v>-19.94759999999998</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0591</v>
+        <v>9.964299999999996</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8752</v>
+        <v>-21.91320000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.92160000000001</v>
+        <v>-21.9908</v>
       </c>
       <c r="B54" t="n">
-        <v>5.191000000000002</v>
+        <v>4.912899999999997</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.04550000000001</v>
+        <v>-22.0502</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.48949999999997</v>
+        <v>-21.40759999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58639999999997</v>
+        <v>-21.52769999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.09060000000001</v>
+        <v>-22.0486</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.77409999999998</v>
+        <v>-20.66849999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.225999999999999</v>
+        <v>5.762899999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.9381</v>
+        <v>-21.95009999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>5.546499999999997</v>
+        <v>5.540499999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.126999999999999</v>
+        <v>4.450699999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.59560000000001</v>
+        <v>-21.5665</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
